--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H2">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I2">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J2">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>26.47383542067882</v>
+        <v>28.675986080396</v>
       </c>
       <c r="R2">
-        <v>26.47383542067882</v>
+        <v>114.703944321584</v>
       </c>
       <c r="S2">
-        <v>0.01570113099567813</v>
+        <v>0.01110587389772724</v>
       </c>
       <c r="T2">
-        <v>0.01570113099567813</v>
+        <v>0.005572095470078422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H3">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I3">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J3">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>199.5229941455765</v>
+        <v>218.302998050346</v>
       </c>
       <c r="R3">
-        <v>199.5229941455765</v>
+        <v>1309.817988302076</v>
       </c>
       <c r="S3">
-        <v>0.1183333135508814</v>
+        <v>0.08454619698327938</v>
       </c>
       <c r="T3">
-        <v>0.1183333135508814</v>
+        <v>0.06362842117079555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H4">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I4">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J4">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>274.7870543473833</v>
+        <v>293.8942288245514</v>
       </c>
       <c r="R4">
-        <v>274.7870543473833</v>
+        <v>1763.365372947308</v>
       </c>
       <c r="S4">
-        <v>0.1629710039239249</v>
+        <v>0.1138217962390009</v>
       </c>
       <c r="T4">
-        <v>0.1629710039239249</v>
+        <v>0.08566087473980559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H5">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I5">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J5">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>24.22674229587467</v>
+        <v>26.57353851111467</v>
       </c>
       <c r="R5">
-        <v>24.22674229587467</v>
+        <v>159.441231066688</v>
       </c>
       <c r="S5">
-        <v>0.01436842257049547</v>
+        <v>0.01029162055294046</v>
       </c>
       <c r="T5">
-        <v>0.01436842257049547</v>
+        <v>0.007745346218257671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.05014696660753</v>
+        <v>1.118606</v>
       </c>
       <c r="H6">
-        <v>1.05014696660753</v>
+        <v>2.237212</v>
       </c>
       <c r="I6">
-        <v>0.3297341579873704</v>
+        <v>0.2359470977354881</v>
       </c>
       <c r="J6">
-        <v>0.3297341579873704</v>
+        <v>0.1707254572024893</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>30.95746510420017</v>
+        <v>41.781820069716</v>
       </c>
       <c r="R6">
-        <v>30.95746510420017</v>
+        <v>167.127280278864</v>
       </c>
       <c r="S6">
-        <v>0.01836028694639056</v>
+        <v>0.01618161006254007</v>
       </c>
       <c r="T6">
-        <v>0.01836028694639056</v>
+        <v>0.008118719603552033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H7">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I7">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J7">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>53.81458717487413</v>
+        <v>21.52314417645467</v>
       </c>
       <c r="R7">
-        <v>53.81458717487413</v>
+        <v>129.138865058728</v>
       </c>
       <c r="S7">
-        <v>0.03191641366974145</v>
+        <v>0.008335661917123059</v>
       </c>
       <c r="T7">
-        <v>0.03191641366974145</v>
+        <v>0.006273315963637735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H8">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I8">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J8">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>405.5795992994699</v>
+        <v>163.850229527138</v>
       </c>
       <c r="R8">
-        <v>405.5795992994699</v>
+        <v>1474.652065744242</v>
       </c>
       <c r="S8">
-        <v>0.2405415881977382</v>
+        <v>0.06345727683575893</v>
       </c>
       <c r="T8">
-        <v>0.2405415881977382</v>
+        <v>0.07163574142174545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H9">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I9">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J9">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>558.5723283281242</v>
+        <v>220.5862369260651</v>
       </c>
       <c r="R9">
-        <v>558.5723283281242</v>
+        <v>1985.276132334586</v>
       </c>
       <c r="S9">
-        <v>0.3312786816975661</v>
+        <v>0.08543046868577754</v>
       </c>
       <c r="T9">
-        <v>0.3312786816975661</v>
+        <v>0.09644086966026656</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H10">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I10">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J10">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>49.24681726419556</v>
+        <v>19.94512408569956</v>
       </c>
       <c r="R10">
-        <v>49.24681726419556</v>
+        <v>179.506116771296</v>
       </c>
       <c r="S10">
-        <v>0.02920735574194074</v>
+        <v>0.007724513198928247</v>
       </c>
       <c r="T10">
-        <v>0.02920735574194074</v>
+        <v>0.00872005950648458</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>2.13468220916671</v>
+        <v>0.8395846666666666</v>
       </c>
       <c r="H11">
-        <v>2.13468220916671</v>
+        <v>2.518754</v>
       </c>
       <c r="I11">
-        <v>0.6702658420126295</v>
+        <v>0.1770932440941826</v>
       </c>
       <c r="J11">
-        <v>0.6702658420126295</v>
+        <v>0.1922104066269082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N11">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O11">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P11">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q11">
-        <v>62.92866817710188</v>
+        <v>31.359902839748</v>
       </c>
       <c r="R11">
-        <v>62.92866817710188</v>
+        <v>188.159417038488</v>
       </c>
       <c r="S11">
-        <v>0.037321802705643</v>
+        <v>0.0121453234565948</v>
       </c>
       <c r="T11">
-        <v>0.037321802705643</v>
+        <v>0.009140420074773913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.156252</v>
+      </c>
+      <c r="H12">
+        <v>6.468756</v>
+      </c>
+      <c r="I12">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J12">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.635466</v>
+      </c>
+      <c r="N12">
+        <v>51.270932</v>
+      </c>
+      <c r="O12">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P12">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q12">
+        <v>55.276524833432</v>
+      </c>
+      <c r="R12">
+        <v>331.659149000592</v>
+      </c>
+      <c r="S12">
+        <v>0.02140795132845895</v>
+      </c>
+      <c r="T12">
+        <v>0.01611135914014524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.156252</v>
+      </c>
+      <c r="H13">
+        <v>6.468756</v>
+      </c>
+      <c r="I13">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J13">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>195.156291</v>
+      </c>
+      <c r="N13">
+        <v>585.468873</v>
+      </c>
+      <c r="O13">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P13">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q13">
+        <v>420.806142781332</v>
+      </c>
+      <c r="R13">
+        <v>3787.255285031988</v>
+      </c>
+      <c r="S13">
+        <v>0.1629732956354517</v>
+      </c>
+      <c r="T13">
+        <v>0.1839775270377196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.156252</v>
+      </c>
+      <c r="H14">
+        <v>6.468756</v>
+      </c>
+      <c r="I14">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J14">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N14">
+        <v>788.197709</v>
+      </c>
+      <c r="O14">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P14">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q14">
+        <v>566.5176288088893</v>
+      </c>
+      <c r="R14">
+        <v>5098.658659280004</v>
+      </c>
+      <c r="S14">
+        <v>0.2194056493384965</v>
+      </c>
+      <c r="T14">
+        <v>0.2476829631873805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.156252</v>
+      </c>
+      <c r="H15">
+        <v>6.468756</v>
+      </c>
+      <c r="I15">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J15">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N15">
+        <v>71.267824</v>
+      </c>
+      <c r="O15">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P15">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q15">
+        <v>51.22379601188267</v>
+      </c>
+      <c r="R15">
+        <v>461.014164106944</v>
+      </c>
+      <c r="S15">
+        <v>0.01983837687310721</v>
+      </c>
+      <c r="T15">
+        <v>0.02239517525448264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.156252</v>
+      </c>
+      <c r="H16">
+        <v>6.468756</v>
+      </c>
+      <c r="I16">
+        <v>0.4548173363868437</v>
+      </c>
+      <c r="J16">
+        <v>0.4936417852359749</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.351686</v>
+      </c>
+      <c r="N16">
+        <v>74.703372</v>
+      </c>
+      <c r="O16">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P16">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q16">
+        <v>80.53964764087199</v>
+      </c>
+      <c r="R16">
+        <v>483.237885845232</v>
+      </c>
+      <c r="S16">
+        <v>0.03119206321132924</v>
+      </c>
+      <c r="T16">
+        <v>0.02347476061624684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H17">
+        <v>1.879428</v>
+      </c>
+      <c r="I17">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J17">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>25.635466</v>
+      </c>
+      <c r="N17">
+        <v>51.270932</v>
+      </c>
+      <c r="O17">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P17">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q17">
+        <v>16.060004197816</v>
+      </c>
+      <c r="R17">
+        <v>96.360025186896</v>
+      </c>
+      <c r="S17">
+        <v>0.006219851722548036</v>
+      </c>
+      <c r="T17">
+        <v>0.00468098340485325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H18">
+        <v>1.879428</v>
+      </c>
+      <c r="I18">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J18">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>195.156291</v>
+      </c>
+      <c r="N18">
+        <v>585.468873</v>
+      </c>
+      <c r="O18">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P18">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q18">
+        <v>122.260732560516</v>
+      </c>
+      <c r="R18">
+        <v>1100.346593044644</v>
+      </c>
+      <c r="S18">
+        <v>0.04735015126085228</v>
+      </c>
+      <c r="T18">
+        <v>0.0534527064686699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.879428</v>
+      </c>
+      <c r="I19">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J19">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N19">
+        <v>788.197709</v>
+      </c>
+      <c r="O19">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P19">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q19">
+        <v>164.5956493144947</v>
+      </c>
+      <c r="R19">
+        <v>1481.360843830452</v>
+      </c>
+      <c r="S19">
+        <v>0.06374596919793418</v>
+      </c>
+      <c r="T19">
+        <v>0.07196164086840377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.879428</v>
+      </c>
+      <c r="I20">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J20">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N20">
+        <v>71.267824</v>
+      </c>
+      <c r="O20">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P20">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q20">
+        <v>14.88252710274133</v>
+      </c>
+      <c r="R20">
+        <v>133.942743924672</v>
+      </c>
+      <c r="S20">
+        <v>0.005763828620196858</v>
+      </c>
+      <c r="T20">
+        <v>0.006506679095359572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.6264759999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.879428</v>
+      </c>
+      <c r="I21">
+        <v>0.1321423217834856</v>
+      </c>
+      <c r="J21">
+        <v>0.1434223509346276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.351686</v>
+      </c>
+      <c r="N21">
+        <v>74.703372</v>
+      </c>
+      <c r="O21">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P21">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q21">
+        <v>23.399934838536</v>
+      </c>
+      <c r="R21">
+        <v>140.399609031216</v>
+      </c>
+      <c r="S21">
+        <v>0.009062520981954196</v>
+      </c>
+      <c r="T21">
+        <v>0.006820341097341061</v>
       </c>
     </row>
   </sheetData>
